--- a/target/classes/target/classes/target/classes/Test Excel File/Example.xlsx
+++ b/target/classes/target/classes/target/classes/Test Excel File/Example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Advanced Programming\Project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Test Excel File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4621492-8C7F-4EE1-B5CF-398975F17BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5845046-938B-4137-8794-CCA057DF93B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15480" yWindow="-3135" windowWidth="15600" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="41" r:id="rId1"/>
@@ -184,7 +184,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -293,7 +293,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -790,26 +790,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486EB83C-7ED2-445D-887A-8B2E303F2CB4}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1"/>
-    <col min="2" max="2" width="45.5546875" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="17"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
@@ -817,7 +817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -825,15 +825,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -850,7 +850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
@@ -865,7 +865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -880,7 +880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -895,7 +895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -910,7 +910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -925,7 +925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
@@ -940,7 +940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -957,7 +957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -974,7 +974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -989,7 +989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>10</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>10</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>10</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
